--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12945" windowHeight="11145"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>stock_code</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t>data_source</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>train_len</t>
+  </si>
+  <si>
+    <t>test_len</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>收盘价</t>
+  </si>
+  <si>
+    <t>日期</t>
   </si>
 </sst>
 </file>
@@ -668,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,17 +714,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -765,7 +801,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FAFAFA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1007,55 +1043,90 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="17.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="9.25" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="12.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="3">
-        <v>600001</v>
-      </c>
-      <c r="B2" s="8">
-        <v>45231</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3">
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9">
+        <v>45170</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="9">
+        <v>45184</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="17400" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -695,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +714,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,11 +729,11 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -801,7 +804,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FAFAFA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1046,7 +1049,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
@@ -1060,53 +1063,53 @@
     <col min="7" max="8" width="12.375" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="6" customWidth="1"/>
     <col min="12" max="12" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:12">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
+    <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="10">
         <v>45170</v>
       </c>
       <c r="C2" s="4"/>
@@ -1124,8 +1127,11 @@
       <c r="I2" s="4">
         <v>0.6</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>45184</v>
+      </c>
+      <c r="K2" s="12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
